--- a/EPQ/EPQ Timetable 1 (1) (1).xlsx
+++ b/EPQ/EPQ Timetable 1 (1) (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Final submission</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t>Finish commenting on the cube.py file and then the triangle.py file to remind myself how each line of code works</t>
+  </si>
+  <si>
+    <t>Begin another program where I shall try to implement multiple 2D shapes in one window</t>
+  </si>
+  <si>
+    <t>Attempt to download and install a working version of cx_Freeze which is needed to build my programs (can only be done at home due to administrator access blocks at Long Road)</t>
+  </si>
+  <si>
+    <t>Try to convert the program into a screensaver format to see if it works as a screensaver at all</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Continue to develop the basic structure of the new program (try to do most of it from memory)</t>
+  </si>
+  <si>
+    <t>Finish the default code for the new program and start to implement the 3D shapes themselves, including size, colour and movement</t>
+  </si>
+  <si>
+    <t>Finalise the variables for the shape to make it the most suitable it can be for a desktop background</t>
+  </si>
+  <si>
+    <t>1 hour 50 minutes</t>
+  </si>
+  <si>
+    <t>Go over the new program commenting on everything to ensure that I understand and can explain how each line of code works</t>
+  </si>
+  <si>
+    <t>Finish commenting the new file</t>
   </si>
 </sst>
 </file>
@@ -519,18 +549,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="101" style="1" customWidth="1"/>
+    <col min="2" max="2" width="178.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="59.28515625" customWidth="1"/>
-    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,7 +1066,7 @@
         <v>42338</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <f t="shared" si="1"/>
         <v>42339</v>
@@ -1050,19 +1081,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <f t="shared" si="1"/>
         <v>42340</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <f t="shared" si="1"/>
         <v>42341</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <f t="shared" si="1"/>
         <v>42342</v>
@@ -1074,19 +1105,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" si="1"/>
         <v>42343</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" si="1"/>
         <v>42344</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" si="1"/>
         <v>42345</v>
@@ -1101,7 +1132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" si="1"/>
         <v>42346</v>
@@ -1116,145 +1147,220 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" si="1"/>
         <v>42347</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" si="1"/>
         <v>42348</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <f t="shared" si="1"/>
         <v>42349</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <f t="shared" si="1"/>
         <v>42350</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <f t="shared" si="1"/>
         <v>42351</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <f t="shared" si="1"/>
         <v>42352</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <f t="shared" si="1"/>
         <v>42353</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <f t="shared" si="1"/>
         <v>42354</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <f t="shared" si="1"/>
         <v>42355</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <f t="shared" si="1"/>
         <v>42356</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <f t="shared" ref="A83:A146" si="2">A82+1</f>
         <v>42357</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <f t="shared" si="2"/>
         <v>42358</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <f t="shared" si="2"/>
         <v>42359</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <f t="shared" si="2"/>
         <v>42360</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <f t="shared" si="2"/>
         <v>42361</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <f t="shared" si="2"/>
         <v>42362</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <f t="shared" si="2"/>
         <v>42363</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <f t="shared" si="2"/>
         <v>42364</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <f t="shared" si="2"/>
         <v>42365</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <f t="shared" si="2"/>
         <v>42366</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <f t="shared" si="2"/>
         <v>42367</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <f t="shared" si="2"/>
         <v>42368</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <f t="shared" si="2"/>
         <v>42369</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <f t="shared" si="2"/>
         <v>42370</v>

--- a/EPQ/EPQ Timetable 1 (1) (1).xlsx
+++ b/EPQ/EPQ Timetable 1 (1) (1).xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
-  <si>
-    <t>Final submission</t>
-  </si>
-  <si>
-    <t>Draft submission</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -39,9 +33,6 @@
     <t xml:space="preserve">Research into 3D programming with Python, watching Sentdex on YouTube. </t>
   </si>
   <si>
-    <t>2 Hours</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time Planned </t>
   </si>
   <si>
@@ -72,27 +63,18 @@
     <t>Use research to develop practice program to have additional functionalities</t>
   </si>
   <si>
-    <t>1 hour 20 minutes</t>
-  </si>
-  <si>
     <t>1 hour</t>
   </si>
   <si>
     <t>Finish watching the Sentdex playlist</t>
   </si>
   <si>
-    <t>1 hour 10 minutes</t>
-  </si>
-  <si>
     <t>Looking up how to deal with specific errors that have/might occur</t>
   </si>
   <si>
     <t>Fixing errors and adjusting program experimentally</t>
   </si>
   <si>
-    <t>50 minutes</t>
-  </si>
-  <si>
     <t>Continuing to experiment</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
     <t>Try to convert the program into a screensaver format to see if it works as a screensaver at all</t>
   </si>
   <si>
-    <t>30 minutes</t>
-  </si>
-  <si>
     <t>Continue to develop the basic structure of the new program (try to do most of it from memory)</t>
   </si>
   <si>
@@ -144,13 +123,52 @@
     <t>Finalise the variables for the shape to make it the most suitable it can be for a desktop background</t>
   </si>
   <si>
-    <t>1 hour 50 minutes</t>
-  </si>
-  <si>
     <t>Go over the new program commenting on everything to ensure that I understand and can explain how each line of code works</t>
   </si>
   <si>
     <t>Finish commenting the new file</t>
+  </si>
+  <si>
+    <t>Realised that I cannot build my program after trying to install different software and not finding packages compatible with each other</t>
+  </si>
+  <si>
+    <t>Organise my programs and prepare for the presentation</t>
+  </si>
+  <si>
+    <t>About 4 hours over multiple days</t>
+  </si>
+  <si>
+    <t>This was a long term problem which also affected my computing coursework</t>
+  </si>
+  <si>
+    <t>3 hours 30 minutes</t>
+  </si>
+  <si>
+    <t>2 hours 40 minutes</t>
+  </si>
+  <si>
+    <t>2 hour 15 minutes</t>
+  </si>
+  <si>
+    <t>2 hours 50 minutes</t>
+  </si>
+  <si>
+    <t>3 hours 15 minutes</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>3 hours 10 minutes</t>
+  </si>
+  <si>
+    <t>2 hour 20 minutes</t>
+  </si>
+  <si>
+    <t>3 Hours</t>
+  </si>
+  <si>
+    <t>2 hour</t>
   </si>
 </sst>
 </file>
@@ -549,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +576,7 @@
     <col min="1" max="1" width="22.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="178.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="80" customWidth="1"/>
     <col min="5" max="5" width="59.28515625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="37.140625" customWidth="1"/>
@@ -566,7 +584,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -576,16 +594,16 @@
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -841,13 +859,13 @@
         <v>42317</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,13 +892,13 @@
         <v>42321</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,13 +907,13 @@
         <v>42322</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,13 +928,13 @@
         <v>42324</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,13 +943,13 @@
         <v>42325</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,10 +970,10 @@
         <v>42328</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
         <v>26</v>
@@ -967,13 +985,13 @@
         <v>42329</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
         <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -988,22 +1006,22 @@
         <v>42331</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,13 +1030,13 @@
         <v>42332</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1039,13 +1057,13 @@
         <v>42335</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,178 +1084,178 @@
         <v>42338</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <f t="shared" si="1"/>
         <v>42339</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <f t="shared" si="1"/>
+        <v>42340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <f t="shared" si="1"/>
+        <v>42341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <f t="shared" si="1"/>
+        <v>42342</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <f t="shared" si="1"/>
+        <v>42343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <f t="shared" si="1"/>
+        <v>42344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <f t="shared" si="1"/>
+        <v>42345</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <f t="shared" si="1"/>
+        <v>42346</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <f t="shared" si="1"/>
+        <v>42347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <f t="shared" si="1"/>
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <f t="shared" si="1"/>
+        <v>42349</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <f t="shared" si="1"/>
+        <v>42350</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <f t="shared" si="1"/>
+        <v>42351</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
         <v>9</v>
       </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <f t="shared" si="1"/>
-        <v>42340</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <f t="shared" si="1"/>
-        <v>42341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <f t="shared" si="1"/>
-        <v>42342</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <f t="shared" si="1"/>
-        <v>42343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <f t="shared" si="1"/>
-        <v>42344</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <f t="shared" si="1"/>
-        <v>42345</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <f t="shared" si="1"/>
+        <v>42352</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <f t="shared" si="1"/>
+        <v>42353</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <f t="shared" si="1"/>
-        <v>42346</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <f t="shared" si="1"/>
-        <v>42347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <f t="shared" si="1"/>
-        <v>42348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <f t="shared" si="1"/>
-        <v>42349</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <f t="shared" si="1"/>
-        <v>42350</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <f t="shared" si="1"/>
-        <v>42351</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <f t="shared" si="1"/>
-        <v>42352</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <f t="shared" si="1"/>
-        <v>42353</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <f t="shared" si="1"/>
         <v>42354</v>
@@ -1255,13 +1273,13 @@
         <v>42356</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,13 +1300,13 @@
         <v>42359</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,13 +1315,13 @@
         <v>42360</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1366,97 +1384,118 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <f t="shared" si="2"/>
         <v>42371</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <f t="shared" si="2"/>
         <v>42372</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <f t="shared" si="2"/>
         <v>42373</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <f t="shared" si="2"/>
         <v>42374</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <f t="shared" si="2"/>
         <v>42375</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <f t="shared" si="2"/>
         <v>42376</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <f t="shared" si="2"/>
         <v>42377</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <f t="shared" si="2"/>
         <v>42378</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <f t="shared" si="2"/>
         <v>42379</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <f t="shared" si="2"/>
         <v>42380</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <f t="shared" si="2"/>
         <v>42381</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <f t="shared" si="2"/>
         <v>42382</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <f t="shared" si="2"/>
         <v>42383</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <f t="shared" si="2"/>
         <v>42384</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <f t="shared" si="2"/>
         <v>42385</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <f t="shared" si="2"/>
         <v>42386</v>
@@ -1498,341 +1537,11 @@
         <v>42392</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <f t="shared" si="2"/>
-        <v>42393</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <f t="shared" si="2"/>
-        <v>42394</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <f t="shared" si="2"/>
-        <v>42395</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <f t="shared" si="2"/>
-        <v>42396</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <f t="shared" si="2"/>
-        <v>42397</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <f t="shared" si="2"/>
-        <v>42398</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <f t="shared" si="2"/>
-        <v>42399</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <f t="shared" si="2"/>
-        <v>42400</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <f t="shared" si="2"/>
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <f t="shared" si="2"/>
-        <v>42402</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <f t="shared" si="2"/>
-        <v>42403</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <f t="shared" si="2"/>
-        <v>42404</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <f t="shared" si="2"/>
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <f t="shared" si="2"/>
-        <v>42406</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <f t="shared" si="2"/>
-        <v>42407</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <f t="shared" si="2"/>
-        <v>42408</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <f t="shared" si="2"/>
-        <v>42409</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <f t="shared" si="2"/>
-        <v>42410</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <f t="shared" si="2"/>
-        <v>42411</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <f t="shared" si="2"/>
-        <v>42412</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <f t="shared" si="2"/>
-        <v>42413</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <f t="shared" si="2"/>
-        <v>42414</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <f t="shared" si="2"/>
-        <v>42415</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <f t="shared" si="2"/>
-        <v>42416</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <f t="shared" si="2"/>
-        <v>42417</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <f t="shared" si="2"/>
-        <v>42418</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <f t="shared" si="2"/>
-        <v>42419</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <f t="shared" si="2"/>
-        <v>42420</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <f t="shared" ref="A147:A173" si="3">A146+1</f>
-        <v>42421</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <f t="shared" si="3"/>
-        <v>42422</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <f t="shared" si="3"/>
-        <v>42423</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <f t="shared" si="3"/>
-        <v>42424</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <f t="shared" si="3"/>
-        <v>42425</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <f t="shared" si="3"/>
-        <v>42426</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <f t="shared" si="3"/>
-        <v>42427</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <f t="shared" si="3"/>
-        <v>42428</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <f t="shared" si="3"/>
-        <v>42429</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <f t="shared" si="3"/>
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <f t="shared" si="3"/>
-        <v>42431</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <f t="shared" si="3"/>
-        <v>42432</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <f t="shared" si="3"/>
-        <v>42433</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <f t="shared" si="3"/>
-        <v>42434</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <f t="shared" si="3"/>
-        <v>42435</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <f t="shared" si="3"/>
-        <v>42436</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <f t="shared" si="3"/>
-        <v>42437</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <f t="shared" si="3"/>
-        <v>42438</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <f t="shared" si="3"/>
-        <v>42439</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <f t="shared" si="3"/>
-        <v>42440</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <f t="shared" si="3"/>
-        <v>42441</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <f t="shared" si="3"/>
-        <v>42442</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <f t="shared" si="3"/>
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <f t="shared" si="3"/>
-        <v>42444</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <f t="shared" si="3"/>
-        <v>42445</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <f t="shared" si="3"/>
-        <v>42446</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <f t="shared" si="3"/>
-        <v>42447</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
